--- a/data/consolidated_uncleaned.xlsx
+++ b/data/consolidated_uncleaned.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cyrilmichino/Documents/Chaptr Technology/zindua-school/sql-challenge-projects/team8-EAC-oil-prices/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{564BBCE3-6B3B-3846-9230-B81AB8C51FD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{365AF77B-08B1-944B-AE30-FE645F78ABAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="0" windowWidth="38400" windowHeight="24000" xr2:uid="{4E261E75-D987-FC44-9579-AAA8C82DCD20}"/>
   </bookViews>
@@ -1147,11 +1147,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E795CA5F-BCC7-FE45-B9ED-B494719D7E02}">
-  <dimension ref="A1:K3532"/>
+  <dimension ref="A1:F3532"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2032" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1161,7 +1161,7 @@
     <col min="7" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
         <v>229</v>
       </c>
@@ -1180,16 +1180,8 @@
       <c r="F1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="1">
-        <f>COUNTIF(C2:C1000000,"*")</f>
-        <v>3531</v>
-      </c>
-      <c r="K1" s="1">
-        <f>J1/223</f>
-        <v>15.834080717488789</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="4">
         <v>45122</v>
       </c>
@@ -1209,7 +1201,7 @@
         <v>166.43257515391258</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="4">
         <v>45122</v>
       </c>
@@ -1229,7 +1221,7 @@
         <v>167.1924969798454</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="4">
         <v>45122</v>
       </c>
@@ -1249,7 +1241,7 @@
         <v>166.81257515391255</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="4">
         <v>45122</v>
       </c>
@@ -1269,7 +1261,7 @@
         <v>166.81257515391255</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="4">
         <v>45122</v>
       </c>
@@ -1289,7 +1281,7 @@
         <v>167.41409918047671</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="4">
         <v>45122</v>
       </c>
@@ -1309,7 +1301,7 @@
         <v>167.57249697984537</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="4">
         <v>45122</v>
       </c>
@@ -1329,7 +1321,7 @@
         <v>168.00903009467334</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="4">
         <v>45122</v>
       </c>
@@ -1349,7 +1341,7 @@
         <v>169.52432008647409</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="4">
         <v>45122</v>
       </c>
@@ -1369,7 +1361,7 @@
         <v>169.96752448773671</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="4">
         <v>45122</v>
       </c>
@@ -1389,7 +1381,7 @@
         <v>170.28097751360477</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="4">
         <v>45122</v>
       </c>
@@ -1409,7 +1401,7 @@
         <v>169.96752448773671</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="4">
         <v>45122</v>
       </c>
@@ -1429,7 +1421,7 @@
         <v>168.85951348458016</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="4">
         <v>45122</v>
       </c>
@@ -1449,7 +1441,7 @@
         <v>168.9533394473564</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="4">
         <v>45122</v>
       </c>
@@ -1469,7 +1461,7 @@
         <v>166.74929257858278</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="4">
         <v>45122</v>
       </c>

--- a/data/consolidated_uncleaned.xlsx
+++ b/data/consolidated_uncleaned.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cyrilmichino/Documents/Chaptr Technology/zindua-school/sql-challenge-projects/team8-EAC-oil-prices/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{365AF77B-08B1-944B-AE30-FE645F78ABAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB88D292-5D0A-6541-AB90-7F5843B5BBA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="0" windowWidth="38400" windowHeight="24000" xr2:uid="{4E261E75-D987-FC44-9579-AAA8C82DCD20}"/>
   </bookViews>
